--- a/CGEvents/wwwroot/Upload/Book1.xlsx
+++ b/CGEvents/wwwroot/Upload/Book1.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rangith11313\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGKarting3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,39 +24,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>fname</t>
   </si>
   <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>emailID</t>
-  </si>
-  <si>
-    <t>ren</t>
-  </si>
-  <si>
-    <t>ben</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>abc@xyz.com</t>
-  </si>
-  <si>
-    <t>pqr@abc.com</t>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>fren</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>rkumar.mr@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>fren2</t>
+  </si>
+  <si>
+    <t>fren3</t>
+  </si>
+  <si>
+    <t>fren4</t>
+  </si>
+  <si>
+    <t>fren5</t>
+  </si>
+  <si>
+    <t>fren6</t>
+  </si>
+  <si>
+    <t>fren7</t>
+  </si>
+  <si>
+    <t>fren8</t>
+  </si>
+  <si>
+    <t>fren9</t>
+  </si>
+  <si>
+    <t>fren10</t>
+  </si>
+  <si>
+    <t>fren11</t>
+  </si>
+  <si>
+    <t>fren12</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>d10</t>
+  </si>
+  <si>
+    <t>d11</t>
+  </si>
+  <si>
+    <t>d12</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>rkumar.mr2@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr3@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr4@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr5@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr6@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr7@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr8@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>rkumar.mr9@choueirigroup.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,9 +288,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,9 +323,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -379,15 +505,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="27.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,33 +526,229 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4:C13" r:id="rId3" display="rkumar.mr2@choueirigroup.com"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
